--- a/sample_budget.xlsx
+++ b/sample_budget.xlsx
@@ -40,12 +40,12 @@
     <t xml:space="preserve">SBU</t>
   </si>
   <si>
+    <t xml:space="preserve">FCID</t>
+  </si>
+  <si>
     <t xml:space="preserve">FieldColleagues</t>
   </si>
   <si>
-    <t xml:space="preserve">FCID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">DepoSyl01F001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Harun</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoSyl01F001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sylhet</t>
   </si>
   <si>
@@ -100,34 +100,34 @@
     <t xml:space="preserve">DSO</t>
   </si>
   <si>
+    <t xml:space="preserve">DepoSyl01F002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kamal</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoSyl01F002</t>
+    <t xml:space="preserve">DepoSyl01F003</t>
   </si>
   <si>
     <t xml:space="preserve">Ram</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoSyl01F003</t>
+    <t xml:space="preserve">DepoSyl01F004</t>
   </si>
   <si>
     <t xml:space="preserve">Sam</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoSyl01F004</t>
+    <t xml:space="preserve">DepoSyl01F005</t>
   </si>
   <si>
     <t xml:space="preserve">Jodu</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoSyl01F005</t>
+    <t xml:space="preserve">DepoSyl01F006</t>
   </si>
   <si>
     <t xml:space="preserve">Modhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DepoSyl01F006</t>
   </si>
   <si>
     <t xml:space="preserve">S002</t>
@@ -181,6 +181,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,105 +267,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -372,31 +373,31 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -405,13 +406,13 @@
       <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -437,7 +438,7 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -461,7 +462,7 @@
       <c r="O4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -485,7 +486,7 @@
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -509,7 +510,7 @@
       <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -533,7 +534,7 @@
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -557,7 +558,7 @@
       <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -581,7 +582,7 @@
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -605,52 +606,52 @@
       <c r="O7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="O8" s="0" t="s">
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -670,14 +671,14 @@
       <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>10</v>
@@ -691,13 +692,13 @@
       <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -721,10 +722,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>10</v>
@@ -747,7 +748,7 @@
       <c r="O10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -769,10 +770,10 @@
         <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>10</v>
@@ -795,7 +796,7 @@
       <c r="O11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -817,10 +818,10 @@
         <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="0" t="s">
         <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>10</v>
@@ -843,7 +844,7 @@
       <c r="O12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -865,10 +866,10 @@
         <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>10</v>
@@ -891,7 +892,7 @@
       <c r="O13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/sample_budget.xlsx
+++ b/sample_budget.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
   <si>
     <t xml:space="preserve">BudgetID</t>
   </si>
@@ -136,6 +136,9 @@
     <t xml:space="preserve">Diary</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">DepoBB01F001</t>
   </si>
   <si>
@@ -151,19 +154,31 @@
     <t xml:space="preserve">DU</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepoBB01F002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepoBB01F003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepoBB01F004</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">DepoBB01F002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DepoBB01F003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DepoBB01F004</t>
-  </si>
-  <si>
     <t xml:space="preserve">DepoBB01F005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">DepoBB01F006</t>
@@ -270,10 +285,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -625,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
@@ -637,13 +652,13 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>24</v>
@@ -652,7 +667,7 @@
         <v>2023</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>27</v>
@@ -684,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>24</v>
@@ -699,7 +714,7 @@
         <v>2023</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,10 +734,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>29</v>
@@ -731,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>24</v>
@@ -746,7 +761,7 @@
         <v>2023</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="0"/>
     </row>
@@ -767,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>31</v>
@@ -779,13 +794,13 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>24</v>
@@ -794,7 +809,7 @@
         <v>2023</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="0"/>
     </row>
@@ -815,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>33</v>
@@ -827,13 +842,13 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>24</v>
@@ -842,7 +857,7 @@
         <v>2023</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="0"/>
     </row>
@@ -863,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -875,13 +890,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
@@ -890,7 +905,7 @@
         <v>2023</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="0"/>
     </row>
